--- a/scripts/ftddata/Updated_LEFFTDS.xlsx
+++ b/scripts/ftddata/Updated_LEFFTDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adebimpe/Box/projects/aslprep/summary/CDsummary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adebimpe/Documents/aslprep_paper/scripts/ftddata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032CF8A4-0733-3944-A36A-FB5D80F5126E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359EDD08-6BC3-2147-8BD7-4C482BB4F04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="500" windowWidth="30700" windowHeight="19540" xr2:uid="{D9F0F853-16DC-404A-A444-DC9378EFE554}"/>
+    <workbookView xWindow="7700" yWindow="500" windowWidth="30700" windowHeight="19540" xr2:uid="{D9F0F853-16DC-404A-A444-DC9378EFE554}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2158E4DB-68C2-7D47-8A58-81D7963C5797}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="2">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
